--- a/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,445 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1485</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,13 +1137,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,196 +1194,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1048</t>
+          <t>0.1485</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601686-友发集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
